--- a/11-CollaborationList/Birmingham.xlsx
+++ b/11-CollaborationList/Birmingham.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350A7884-236E-5C4A-B20B-713088385CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C441F17B-1153-5945-A383-F16A28C4786A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{06771C6B-1973-A943-8791-FC202D4D0B21}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>Birmimgham-MedPhys</t>
   </si>
   <si>
-    <t>Department of Medical Physics, University Hospital Birmingham Foundation NHS Trust, Edgbaston, Birmingham, B15 2TH</t>
-  </si>
-  <si>
     <t>IB</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>C. Burne</t>
+  </si>
+  <si>
+    <t>Department of Medical Physics, University Hospital Birmingham Foundation NHS Trust, Edgbaston, Birmingham, B15 2TH, UK</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1170,13 +1170,13 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1184,34 +1184,34 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
         <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1219,92 +1219,92 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
       <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
         <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>50</v>
       </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
       <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1312,28 +1312,28 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
       <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
         <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
       </c>
       <c r="I7">
         <v>0</v>

--- a/11-CollaborationList/Birmingham.xlsx
+++ b/11-CollaborationList/Birmingham.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C441F17B-1153-5945-A383-F16A28C4786A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B61804-90EF-C04E-92C4-BAEF1C14DC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{06771C6B-1973-A943-8791-FC202D4D0B21}"/>
+    <workbookView xWindow="-36520" yWindow="1120" windowWidth="28040" windowHeight="17440" xr2:uid="{06771C6B-1973-A943-8791-FC202D4D0B21}"/>
   </bookViews>
   <sheets>
     <sheet name="Birmingham" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Title</t>
   </si>
@@ -191,6 +191,21 @@
   </si>
   <si>
     <t>Department of Medical Physics, University Hospital Birmingham Foundation NHS Trust, Edgbaston, Birmingham, B15 2TH, UK</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Melia</t>
+  </si>
+  <si>
+    <t>E.</t>
+  </si>
+  <si>
+    <t>exm307@student.bham.ac.uk</t>
+  </si>
+  <si>
+    <t>E. Melia</t>
   </si>
 </sst>
 </file>
@@ -735,8 +750,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB27D490-2753-E342-9FCF-B4484ADC87BE}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowShown="0">
-  <autoFilter ref="A1:O7" xr:uid="{EB27D490-2753-E342-9FCF-B4484ADC87BE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB27D490-2753-E342-9FCF-B4484ADC87BE}" name="Table1" displayName="Table1" ref="A1:O8" totalsRowShown="0">
+  <autoFilter ref="A1:O8" xr:uid="{EB27D490-2753-E342-9FCF-B4484ADC87BE}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{977B9461-A98C-414C-9669-4CDB50119F67}" name="Title"/>
     <tableColumn id="2" xr3:uid="{4E92EAE3-8906-A04E-A0E9-01ABFA76F596}" name="Name"/>
@@ -1075,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C17739-54D2-4D47-931C-4023B7093A8F}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1339,6 +1354,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
